--- a/data/trans_bre/POLIPATOLOGIA_Lim_5-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_Lim_5-Habitat-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>6.854320238629255</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7.748832242248854</v>
+        <v>7.748832242248857</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>1.480540162096648</v>
@@ -627,7 +627,7 @@
         <v>2.086077812235352</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8777281614697798</v>
+        <v>0.8777281614697802</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.894414366456619</v>
+        <v>2.861970396665285</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.324835961541354</v>
+        <v>4.259766220413995</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.911673812225398</v>
+        <v>4.800559159907959</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.5833796782266278</v>
+        <v>0.5813949960199223</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9872239440995809</v>
+        <v>0.9425925266012782</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4438290085056523</v>
+        <v>0.4575692271653043</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.100610585223709</v>
+        <v>7.972077737023329</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.659702059164733</v>
+        <v>9.672912355165646</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.14717036201966</v>
+        <v>10.3693451001632</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3.044597125617337</v>
+        <v>2.885436833732832</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4.058904257827384</v>
+        <v>4.009655834541412</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.362268311342062</v>
+        <v>1.421257266737552</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.324747227546168</v>
+        <v>3.515488287638886</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.322345907981227</v>
+        <v>3.235636502510289</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5.604988642213757</v>
+        <v>5.797940533148611</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.7509139606697819</v>
+        <v>0.849915815430597</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8337747878895356</v>
+        <v>0.9016751668340617</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7259439038039521</v>
+        <v>0.7803409851141854</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.472776901705331</v>
+        <v>7.615814028916546</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.531960192176943</v>
+        <v>7.489298138701638</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.878376659212428</v>
+        <v>10.01997232464502</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.016650018868246</v>
+        <v>3.118609743952984</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.320083498459427</v>
+        <v>3.410587427530006</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.821269935947159</v>
+        <v>1.934738250416322</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>4.943720756675109</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6.580110240884457</v>
+        <v>6.580110240884456</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>1.245259953314491</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.187943417265415</v>
+        <v>2.178572055573719</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.599748172109448</v>
+        <v>2.691942929101828</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.841273966621782</v>
+        <v>3.815909768319782</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.4214973955576188</v>
+        <v>0.4543247906882484</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.655958218299965</v>
+        <v>0.6900862289970723</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4730641719469352</v>
+        <v>0.5180684221095817</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.100237110726601</v>
+        <v>6.967400258459004</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.269380615519158</v>
+        <v>7.084964878252325</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.081737087336277</v>
+        <v>9.204349038601499</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>2.644279574710456</v>
+        <v>2.701645737833731</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.716752185265684</v>
+        <v>3.549526052842701</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.750765439100984</v>
+        <v>1.902776235017539</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>6.388441812562378</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9.553678422844735</v>
+        <v>9.553678422844731</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>1.914635029159872</v>
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.779904126368393</v>
+        <v>4.763759606596289</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.101809370894177</v>
+        <v>4.324908408978991</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.301255808267104</v>
+        <v>7.254653355257455</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.9343543518539467</v>
+        <v>0.9931456825924861</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8348113742104942</v>
+        <v>0.9634426449527542</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9108382301205993</v>
+        <v>0.9001078032993312</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.459853177180321</v>
+        <v>9.593874060927288</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.742458919417563</v>
+        <v>8.513681059248434</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>11.98476096655512</v>
+        <v>11.95100077270556</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.416359966406257</v>
+        <v>3.603252775012353</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.164941568038294</v>
+        <v>3.206937920313941</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.115488949380331</v>
+        <v>2.089540356466032</v>
       </c>
     </row>
     <row r="16">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.569823297415285</v>
+        <v>4.548137679938864</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.66153410890546</v>
+        <v>4.705218698530896</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.857719485682772</v>
+        <v>6.739400267931593</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>1.113067664060267</v>
+        <v>1.097886038926681</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1.307971707726002</v>
+        <v>1.307522069005215</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.905713807155581</v>
+        <v>0.8913057006029614</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.908273058179355</v>
+        <v>6.978045659052872</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.004419170418251</v>
+        <v>7.134873840276572</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.295369438111102</v>
+        <v>9.124347953886005</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2.219664430317888</v>
+        <v>2.268305366100129</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.630603480997502</v>
+        <v>2.632323417955749</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.4601403602798</v>
+        <v>1.440399271386344</v>
       </c>
     </row>
     <row r="19">
